--- a/dashboard_loader/skills_cert3_uploader/skills_cert3.xlsx
+++ b/dashboard_loader/skills_cert3_uploader/skills_cert3.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Description" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t xml:space="preserve">Reduce the number of Australians without a Certificate III qualification or above</t>
   </si>
@@ -92,40 +92,37 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2015, the proportion of Australians aged 20-64 without qualifications at the Certificate III level or above was 40.0 per cent. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a 7.1 percentage point decrease from 2009 which is not sufficient to meet the trajectory needed to achieve the 23.6 per cent target by 2020, as agreed by COAG. Progress appeared to stall between 2012  and 2014, however there has since been a significant national improvement. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All states and territories have improved since 2009, with Victoria (9.7 percentage points), the Northern Territory (8.7 percentage points)and Western Australia (8.5 percentage points)  achieving the greatest improvements. </t>
+    <t xml:space="preserve">In 2017, the proportion of Australians aged 20-64 without qualifications at the Certificate III level or above was 38.4 per cent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a 8.7 percentage point decrease from 2009, whilst an improvement over this time, it is not sufficient to meet the trajectory needed to achieve the 23.6 per cent target by 2020. All states and territories have improved since 2009.</t>
   </si>
   <si>
     <t xml:space="preserve">Influences</t>
   </si>
   <si>
-    <t xml:space="preserve">Relevant employment pathways following training contribute to VET uptake (Wheelahan, Buchanan, &amp; Yu, 2015), as does income and education prior to training.  Employers’ ability to support further study may also play a role, and in an uncertain economic environment this support may be less prevalent (Beddie, 2015).</t>
+    <t xml:space="preserve">Relevant employment pathways following training contribute to VET uptake (Wheelahan, Buchanan and Yu 2015), as does income and education prior to training.  Employers’ ability to support further study may also play a role, and in an uncertain economic environment this support may be less prevalent (Beddie 2015).</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">The Survey of Education and Work was not conducted in Aboriginal and Torres Strait Islander communities in very remote areas, which affects the comparability of Northern Territory results as these communities account for around 15 per cent of the Northern Territory 15–74 year old population.</t>
+    <t xml:space="preserve">The ABS Survey of Education and Work is not conducted in discrete Aboriginal and Torres Strait Islander communities.</t>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ABS (various years) Education and Work, Australia.</t>
+    <t xml:space="preserve">ABS (2017) Education and Work, Australia, Cat. No. 62770DO026_201705</t>
   </si>
   <si>
     <t xml:space="preserve">References</t>
   </si>
   <si>
-    <t xml:space="preserve">Beddie, F. (2015). The outcomes of education and training: what the Australian research is telling us, 2011-14. Adelaide: NCVER.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheelahan, L., Buchanan, J. and Yu, S. (2015). Linking qualifications and the labour market through capabilities and vocational streams. Adelaide: NCVER.</t>
+    <t xml:space="preserve">Beddie, F. (2015), The outcomes of education and training: what the Australian research is telling us, 2011-14, Adelaide, NCVER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheelahan, L., Buchanan, J. and Yu, S. (2015), Linking qualifications and the labour market through capabilities and vocational streams, Adelaide, NCVER.</t>
   </si>
 </sst>
 </file>
@@ -137,7 +134,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,83 +157,8 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="Microsoft Sans Serif"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -262,14 +184,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF00000A"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,74 +207,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF00000A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -370,7 +242,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -394,168 +266,122 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="4" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Style7" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="22" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -567,7 +393,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -583,7 +409,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -610,18 +436,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +464,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -671,7 +499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>2009</v>
       </c>
@@ -706,7 +534,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>2009</v>
       </c>
@@ -741,7 +569,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>2009</v>
       </c>
@@ -749,7 +577,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.54525386313466</v>
+        <v>1.6</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.57894736842105</v>
@@ -764,19 +592,19 @@
         <v>2.45579567779961</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.32681017612524</v>
+        <v>3.4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.0983606557377</v>
+        <v>4.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.4412955465587</v>
+        <v>3.5</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.955414012738854</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>2010</v>
       </c>
@@ -811,7 +639,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>2010</v>
       </c>
@@ -846,7 +674,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>2010</v>
       </c>
@@ -863,25 +691,25 @@
         <v>1.57894736842105</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.82795698924731</v>
+        <v>1.9</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.03252032520325</v>
+        <v>2.1</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>2.97029702970297</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.68731563421829</v>
+        <v>3.8</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.53319057815846</v>
+        <v>3.6</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.66079295154185</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>2011</v>
       </c>
@@ -916,7 +744,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>2011</v>
       </c>
@@ -951,7 +779,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>2011</v>
       </c>
@@ -959,34 +787,34 @@
         <v>14</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.62790697674419</v>
+        <v>1.6</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.85614849187935</v>
+        <v>1.9</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.72043010752688</v>
+        <v>1.7</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.33545647558386</v>
+        <v>2.4</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.22672064777328</v>
+        <v>2.3</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>2.41935483870968</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.81231671554252</v>
+        <v>3.9</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.894854586129754</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>2012</v>
       </c>
@@ -1021,7 +849,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>2012</v>
       </c>
@@ -1056,7 +884,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>2012</v>
       </c>
@@ -1070,7 +898,7 @@
         <v>1.86104218362283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.08791208791209</v>
+        <v>2.2</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>2.00471698113208</v>
@@ -1079,19 +907,19 @@
         <v>1.80851063829787</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.50544662309368</v>
+        <v>2.6</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>3.93939393939394</v>
+        <v>4</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.88026607538803</v>
+        <v>4</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.715990453460621</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>2013</v>
       </c>
@@ -1126,7 +954,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>2013</v>
       </c>
@@ -1161,7 +989,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>2013</v>
       </c>
@@ -1169,34 +997,34 @@
         <v>14</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.67064439140811</v>
+        <v>1.8</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.73697270471464</v>
+        <v>1.8</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.54867256637168</v>
+        <v>1.6</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.94954128440367</v>
+        <v>2</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.32300884955752</v>
+        <v>2.3</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>2.46781115879828</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.52941176470588</v>
+        <v>3.6</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.4543429844098</v>
+        <v>4.6</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0.938967136150235</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>2014</v>
       </c>
@@ -1207,31 +1035,31 @@
         <v>41.2</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>42.7</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>48.1</v>
+        <v>47.8</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>32.4</v>
+        <v>32.1</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="K18" s="7" t="n">
         <v>42.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>2014</v>
       </c>
@@ -1245,13 +1073,13 @@
         <v>1.6</v>
       </c>
       <c r="E19" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="n">
         <v>1.7</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>1.6</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>2.8</v>
@@ -1260,13 +1088,13 @@
         <v>3.3</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="K19" s="7" t="n">
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>2014</v>
       </c>
@@ -1280,28 +1108,28 @@
         <v>1.91846522781775</v>
       </c>
       <c r="E20" s="8" t="n">
-        <v>1.92307692307692</v>
+        <v>1.8</v>
       </c>
       <c r="F20" s="8" t="n">
-        <v>2.10772833723653</v>
+        <v>2.4</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>1.67014613778706</v>
+        <v>1.8</v>
       </c>
       <c r="H20" s="8" t="n">
-        <v>2.91060291060291</v>
+        <v>3</v>
       </c>
       <c r="I20" s="8" t="n">
-        <v>5.09259259259259</v>
+        <v>5.2</v>
       </c>
       <c r="J20" s="8" t="n">
-        <v>1.26582278481013</v>
+        <v>4.1</v>
       </c>
       <c r="K20" s="8" t="n">
         <v>0.823529411764706</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>2015</v>
       </c>
@@ -1318,25 +1146,25 @@
         <v>42.7</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>43.2</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>30.8</v>
+        <v>30.4</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="K21" s="7" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>2015</v>
       </c>
@@ -1350,13 +1178,13 @@
         <v>1.2</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.9</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>2</v>
@@ -1365,13 +1193,13 @@
         <v>3.4</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K22" s="7" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>2015</v>
       </c>
@@ -1384,8 +1212,8 @@
       <c r="D23" s="8" t="n">
         <v>1.58730158730159</v>
       </c>
-      <c r="E23" s="8" t="n">
-        <v>1.52224824355972</v>
+      <c r="E23" s="4" t="n">
+        <v>1.4</v>
       </c>
       <c r="F23" s="8" t="n">
         <v>2.38693467336683</v>
@@ -1397,31 +1225,242 @@
         <v>2.23713646532438</v>
       </c>
       <c r="I23" s="8" t="n">
-        <v>5.51948051948052</v>
+        <v>5.8</v>
       </c>
       <c r="J23" s="8" t="n">
-        <v>3.93120393120393</v>
+        <v>4.5</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J26" s="8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="K27" s="7" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G29" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I29" s="8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J29" s="8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="7" t="n">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="7" t="n">
         <v>23.6</v>
       </c>
     </row>
@@ -1441,106 +1480,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="98.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="98.1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="14" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+    <row r="7" customFormat="false" ht="40.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="14" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="14" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="15" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="18" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="16" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/skills_cert3_uploader/skills_cert3.xlsx
+++ b/dashboard_loader/skills_cert3_uploader/skills_cert3.xlsx
@@ -119,10 +119,10 @@
     <t xml:space="preserve">References</t>
   </si>
   <si>
-    <t xml:space="preserve">Beddie, F. (2015), The outcomes of education and training: what the Australian research is telling us, 2011-14, Adelaide, NCVER.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheelahan, L., Buchanan, J. and Yu, S. (2015), Linking qualifications and the labour market through capabilities and vocational streams, Adelaide, NCVER.</t>
+    <t xml:space="preserve">Beddie, F. 2015, The outcomes of education and training: what the Australian research is telling us, 2011-14, Adelaide, NCVER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheelahan, L., Buchanan, J. and Yu, S. 2015, Linking qualifications and the labour market through capabilities and vocational streams, Adelaide, NCVER.</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -155,12 +155,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -242,7 +236,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,15 +260,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,35 +270,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -320,27 +306,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,25 +334,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Style7" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1483,13 +1467,14 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="98.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,7 +1547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>31</v>
       </c>
@@ -1570,7 +1555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
